--- a/works/3/output.xlsx
+++ b/works/3/output.xlsx
@@ -441,34 +441,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>openpyxl - A Python library to read/write Excel 2010 xlsx/xlsm files — openpyxl 3.1.2 documentation</t>
+          <t>python - how can i put widget next row using tkinter pack() method? - Stack Overflow</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://openpyxl.readthedocs.io/en/stable/</t>
+          <t>https://stackoverflow.com/questions/36587783/how-can-i-put-widget-next-row-using-tkinter-pack-method</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2695</t>
+          <t>1058</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>openpyxl - A Python library to read/write Excel 2010 xlsx/xlsm files — openpyxl 3.1.2 documentation</t>
+          <t>python - how can i put widget next row using tkinter pack() method? - Stack Overflow</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://openpyxl.readthedocs.io/en/stable/</t>
+          <t>https://stackoverflow.com/questions/36587783/how-can-i-put-widget-next-row-using-tkinter-pack-method</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2695</t>
+          <t>1058</t>
         </is>
       </c>
     </row>
